--- a/payments.xlsx
+++ b/payments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Pay Tova</t>
   </si>
@@ -51,13 +51,31 @@
   </si>
   <si>
     <t>Total Paid</t>
+  </si>
+  <si>
+    <t>To T line</t>
+  </si>
+  <si>
+    <t>From T line</t>
+  </si>
+  <si>
+    <t>בנק פועלים </t>
+  </si>
+  <si>
+    <t>סניף</t>
+  </si>
+  <si>
+    <t>חשבון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +97,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -128,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +167,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K34"/>
+  <dimension ref="C3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -469,26 +505,31 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="J5" s="7" t="s">
+    <row r="4" spans="3:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="7">
-        <f>SUM(I7:I19)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="I4" s="7">
+        <f>SUM(I7:I16)</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="18" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -510,8 +551,20 @@
       <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10">
+        <v>655</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>2016</v>
       </c>
@@ -532,10 +585,22 @@
         <v>1100</v>
       </c>
       <c r="I7" s="3">
+        <v>280</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M7" s="10">
+        <v>142241</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>2016</v>
       </c>
@@ -546,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F19" si="0">DATE(C8,D8,E8)</f>
+        <f t="shared" ref="F8:F16" si="0">DATE(C8,D8,E8)</f>
         <v>42529</v>
       </c>
       <c r="G8" s="3">
@@ -560,8 +625,20 @@
       <c r="I8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="9">
+        <f>K7+1</f>
+        <v>301</v>
+      </c>
+      <c r="K8" s="9">
+        <f>J8+299</f>
+        <v>600</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>2016</v>
       </c>
@@ -576,16 +653,26 @@
         <v>42531</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G19" si="1">H8+1</f>
+        <f t="shared" ref="G9:G16" si="1">H8+1</f>
         <v>1401</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9:H19" si="2">G9+300-1</f>
+        <f t="shared" ref="H9:H16" si="2">G9+300-1</f>
         <v>1700</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>260</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" ref="J9:J16" si="3">K8+1</f>
+        <v>601</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" ref="K9:K16" si="4">J9+299</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2016</v>
       </c>
@@ -607,9 +694,19 @@
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <v>280</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>901</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>2016</v>
       </c>
@@ -632,8 +729,16 @@
         <v>2300</v>
       </c>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>1201</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>2016</v>
       </c>
@@ -656,8 +761,16 @@
         <v>2600</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>1501</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2016</v>
       </c>
@@ -680,8 +793,16 @@
         <v>2900</v>
       </c>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>1801</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>2016</v>
       </c>
@@ -704,8 +825,16 @@
         <v>3200</v>
       </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>2101</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>2016</v>
       </c>
@@ -728,8 +857,16 @@
         <v>3500</v>
       </c>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>2401</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>2016</v>
       </c>
@@ -752,210 +889,143 @@
         <v>3800</v>
       </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>2701</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>42547</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>3801</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>4100</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>42549</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>4101</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>42551</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>4401</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
-        <v>4700</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2015</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2015</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>2015</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>2015</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>2015</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>2015</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>2015</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>2015</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>2015</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>2015</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>2015</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>2015</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>2015</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/payments.xlsx
+++ b/payments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Pay Tova</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>moved to file</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,11 +154,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,14 +515,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
@@ -521,7 +541,7 @@
       </c>
       <c r="I4" s="7">
         <f>SUM(I7:I16)</f>
-        <v>1120</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -557,6 +577,9 @@
       <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L6" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="M6" s="10">
         <v>655</v>
       </c>
@@ -705,6 +728,12 @@
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
+      <c r="M10">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11">
@@ -714,11 +743,11 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>42535</v>
+        <v>42539</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
@@ -728,7 +757,9 @@
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>280</v>
+      </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
         <v>1201</v>
@@ -760,7 +791,9 @@
         <f t="shared" si="2"/>
         <v>2600</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>280</v>
+      </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
         <v>1501</v>
@@ -768,6 +801,9 @@
       <c r="K12" s="9">
         <f t="shared" si="4"/>
         <v>1800</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Pay Tova</t>
   </si>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -528,6 +528,7 @@
     <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -541,7 +542,7 @@
       </c>
       <c r="I4" s="7">
         <f>SUM(I7:I16)</f>
-        <v>1680</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -828,7 +829,9 @@
         <f t="shared" si="2"/>
         <v>2900</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>280</v>
+      </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
         <v>1801</v>
@@ -837,6 +840,9 @@
         <f t="shared" si="4"/>
         <v>2100</v>
       </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14">
@@ -860,7 +866,9 @@
         <f t="shared" si="2"/>
         <v>3200</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>280</v>
+      </c>
       <c r="J14" s="9">
         <f t="shared" si="3"/>
         <v>2101</v>
@@ -868,6 +876,9 @@
       <c r="K14" s="9">
         <f t="shared" si="4"/>
         <v>2400</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Pay Tova</t>
   </si>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="I4" s="7">
         <f>SUM(I7:I16)</f>
-        <v>2240</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>1401</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9:H16" si="2">G9+300-1</f>
+        <f t="shared" ref="H9:H15" si="2">G9+300-1</f>
         <v>1700</v>
       </c>
       <c r="I9" s="3">
@@ -903,7 +903,9 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>280</v>
+      </c>
       <c r="J15" s="9">
         <f t="shared" si="3"/>
         <v>2401</v>
@@ -912,6 +914,9 @@
         <f t="shared" si="4"/>
         <v>2700</v>
       </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16">
@@ -932,10 +937,13 @@
         <v>3501</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>3800</v>
-      </c>
-      <c r="I16" s="3"/>
+        <f>G16+390-1</f>
+        <v>3890</v>
+      </c>
+      <c r="I16" s="3">
+        <f>280*390/300</f>
+        <v>364</v>
+      </c>
       <c r="J16" s="9">
         <f t="shared" si="3"/>
         <v>2701</v>
@@ -944,8 +952,11 @@
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>2015</v>
       </c>
@@ -953,8 +964,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f>SUM(I7:I16)</f>
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>2015</v>
       </c>
@@ -963,7 +978,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>2015</v>
       </c>
@@ -972,7 +987,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>2015</v>
       </c>
@@ -981,7 +996,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2015</v>
       </c>
@@ -990,7 +1005,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2015</v>
       </c>
@@ -999,7 +1014,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>2015</v>
       </c>
@@ -1008,7 +1023,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>2015</v>
       </c>
@@ -1017,7 +1032,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>2015</v>
       </c>
@@ -1026,7 +1041,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>2015</v>
       </c>
@@ -1035,7 +1050,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>2015</v>
       </c>
@@ -1044,7 +1059,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>2015</v>
       </c>
@@ -1053,7 +1068,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>2015</v>
       </c>
@@ -1062,7 +1077,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>2015</v>
       </c>
